--- a/biology/Botanique/Battersea_Park/Battersea_Park.xlsx
+++ b/biology/Botanique/Battersea_Park/Battersea_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battersea Park est un espace vert d'une surface de 83 hectares, situé dans le district de Battersea, dans le Borough londonien de Wandsworth, à Londres, sur la rive sud de la Tamise, face au quartier de Chelsea, situé sur la rive nord. Il fut inauguré en 1858.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu’aujourd’hui le lieu soit connu comme un endroit pour se défouler et se relaxer, où les Londoniens aiment sortir en famille, cela ne fut pas toujours le cas. 
 La reine Victoria inaugura en 1858, les Battersea Fields, conçus par James Pennethorne, dans une zone qui était jusqu’alors un champ de bataille.
@@ -551,7 +565,9 @@
           <t>Installations présentes dans le parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tout parc londonien qui se respecte, Battersea Park possède de nombreux équipements, telles que The Bandstand, kiosque à musique situé à la croisée des principales allées du parc ; Boating Lake, lac abritant plusieurs espèces de poissons et d'oiseaux, et sur lequel on peut faire du bateau, d'où son nom ; Battersea Park Children's Zoo, parc zoologique principalement destiné, comme son nom l'indique, aux enfants ; The London Peace Pagoda, une pagode érigée en 1985 ; Battersea Evolution, une galerie d'événements ; Millenium Arena, un stade situé au nord-est, comprenant un terrain de football et une piste de course ; Battersea Park All Weather Sports Ground au sud-ouest, terrain réunissant des courts de tennis et une aire de jeu pour enfants, adaptée à tous les âges ; Go Ape Battersea Park, un parcours dans les arbres ; une fontaine ; une arche métallique d'une vingtaine de mètres de long ; de nombreux points de restauration ambulants. Ainsi, Battersea Park n'a rien à envier à ses confrères royaux, bien au contraire.
 </t>
